--- a/datasets/UD_Vietnamese-COL/dictionary/words_noun_candidates.xlsx
+++ b/datasets/UD_Vietnamese-COL/dictionary/words_noun_candidates.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="1165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="1166">
   <si>
     <t xml:space="preserve">token</t>
   </si>
@@ -1280,6 +1280,9 @@
   </si>
   <si>
     <t xml:space="preserve">hạ viện</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
   </si>
   <si>
     <t xml:space="preserve">hạn</t>
@@ -3632,8 +3635,8 @@
   </sheetPr>
   <dimension ref="A1:C1162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A625" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C640" activeCellId="0" sqref="C640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6979,10 +6982,13 @@
       <c r="B417" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C417" s="0" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B418" s="0" t="s">
         <v>4</v>
@@ -6990,7 +6996,7 @@
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B419" s="0" t="s">
         <v>4</v>
@@ -6998,7 +7004,7 @@
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B420" s="0" t="s">
         <v>4</v>
@@ -7006,7 +7012,7 @@
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B421" s="0" t="s">
         <v>4</v>
@@ -7014,31 +7020,40 @@
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B422" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C422" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B423" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C423" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B424" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C424" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B425" s="0" t="s">
         <v>4</v>
@@ -7046,15 +7061,18 @@
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B426" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C426" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B427" s="0" t="s">
         <v>4</v>
@@ -7062,31 +7080,40 @@
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B428" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C428" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B429" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C429" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B430" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C430" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B431" s="0" t="s">
         <v>4</v>
@@ -7094,39 +7121,51 @@
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B432" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C432" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B433" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C433" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B434" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C434" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B435" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C435" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B436" s="0" t="s">
         <v>4</v>
@@ -7134,7 +7173,7 @@
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B437" s="0" t="s">
         <v>4</v>
@@ -7142,23 +7181,29 @@
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B438" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C438" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B439" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C439" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B440" s="0" t="s">
         <v>4</v>
@@ -7166,7 +7211,7 @@
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B441" s="0" t="s">
         <v>4</v>
@@ -7174,7 +7219,7 @@
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B442" s="0" t="s">
         <v>4</v>
@@ -7182,7 +7227,7 @@
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B443" s="0" t="s">
         <v>4</v>
@@ -7190,7 +7235,7 @@
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B444" s="0" t="s">
         <v>4</v>
@@ -7198,7 +7243,7 @@
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B445" s="0" t="s">
         <v>4</v>
@@ -7206,15 +7251,18 @@
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B446" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C446" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B447" s="0" t="s">
         <v>4</v>
@@ -7222,7 +7270,7 @@
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B448" s="0" t="s">
         <v>4</v>
@@ -7230,7 +7278,7 @@
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B449" s="0" t="s">
         <v>4</v>
@@ -7238,7 +7286,7 @@
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B450" s="0" t="s">
         <v>4</v>
@@ -7246,23 +7294,29 @@
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B451" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C451" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B452" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C452" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B453" s="0" t="s">
         <v>4</v>
@@ -7270,7 +7324,7 @@
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B454" s="0" t="s">
         <v>4</v>
@@ -7278,7 +7332,7 @@
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B455" s="0" t="s">
         <v>4</v>
@@ -7286,23 +7340,29 @@
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B456" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C456" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B457" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C457" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B458" s="0" t="s">
         <v>4</v>
@@ -7310,23 +7370,29 @@
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B459" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C459" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B460" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C460" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B461" s="0" t="s">
         <v>4</v>
@@ -7334,7 +7400,7 @@
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B462" s="0" t="s">
         <v>4</v>
@@ -7342,7 +7408,7 @@
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B463" s="0" t="s">
         <v>4</v>
@@ -7350,7 +7416,7 @@
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B464" s="0" t="s">
         <v>4</v>
@@ -7358,15 +7424,18 @@
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B465" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C465" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B466" s="0" t="s">
         <v>4</v>
@@ -7374,15 +7443,18 @@
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B467" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C467" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B468" s="0" t="s">
         <v>4</v>
@@ -7390,7 +7462,7 @@
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B469" s="0" t="s">
         <v>4</v>
@@ -7398,7 +7470,7 @@
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B470" s="0" t="s">
         <v>4</v>
@@ -7406,7 +7478,7 @@
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B471" s="0" t="s">
         <v>4</v>
@@ -7414,7 +7486,7 @@
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B472" s="0" t="s">
         <v>4</v>
@@ -7422,7 +7494,7 @@
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B473" s="0" t="s">
         <v>4</v>
@@ -7430,7 +7502,7 @@
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B474" s="0" t="s">
         <v>4</v>
@@ -7438,31 +7510,40 @@
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B475" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C475" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B476" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C476" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B477" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C477" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B478" s="0" t="s">
         <v>4</v>
@@ -7470,15 +7551,18 @@
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B479" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C479" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B480" s="0" t="s">
         <v>4</v>
@@ -7486,7 +7570,7 @@
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B481" s="0" t="s">
         <v>4</v>
@@ -7494,7 +7578,7 @@
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B482" s="0" t="s">
         <v>4</v>
@@ -7502,7 +7586,7 @@
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B483" s="0" t="s">
         <v>4</v>
@@ -7510,15 +7594,18 @@
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B484" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C484" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B485" s="0" t="s">
         <v>4</v>
@@ -7526,7 +7613,7 @@
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B486" s="0" t="s">
         <v>4</v>
@@ -7534,15 +7621,18 @@
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B487" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C487" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B488" s="0" t="s">
         <v>4</v>
@@ -7550,7 +7640,7 @@
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B489" s="0" t="s">
         <v>4</v>
@@ -7558,7 +7648,7 @@
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B490" s="0" t="s">
         <v>4</v>
@@ -7566,7 +7656,7 @@
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B491" s="0" t="s">
         <v>4</v>
@@ -7574,7 +7664,7 @@
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B492" s="0" t="s">
         <v>4</v>
@@ -7582,7 +7672,7 @@
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B493" s="0" t="s">
         <v>4</v>
@@ -7590,31 +7680,40 @@
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B494" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C494" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B495" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C495" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B496" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C496" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B497" s="0" t="s">
         <v>4</v>
@@ -7622,7 +7721,7 @@
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B498" s="0" t="s">
         <v>4</v>
@@ -7630,7 +7729,7 @@
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B499" s="0" t="s">
         <v>4</v>
@@ -7638,7 +7737,7 @@
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B500" s="0" t="s">
         <v>4</v>
@@ -7646,23 +7745,26 @@
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B501" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C501" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B502" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B503" s="0" t="s">
         <v>4</v>
@@ -7670,7 +7772,7 @@
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B504" s="0" t="s">
         <v>4</v>
@@ -7678,7 +7780,7 @@
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B505" s="0" t="s">
         <v>4</v>
@@ -7686,7 +7788,7 @@
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B506" s="0" t="s">
         <v>4</v>
@@ -7694,7 +7796,7 @@
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B507" s="0" t="s">
         <v>4</v>
@@ -7702,39 +7804,51 @@
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B508" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C508" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B509" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C509" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B510" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C510" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B511" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C511" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B512" s="0" t="s">
         <v>4</v>
@@ -7742,31 +7856,40 @@
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B513" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C513" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B514" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C514" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B515" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C515" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B516" s="0" t="s">
         <v>4</v>
@@ -7774,7 +7897,7 @@
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B517" s="0" t="s">
         <v>4</v>
@@ -7782,23 +7905,29 @@
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B518" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C518" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B519" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C519" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B520" s="0" t="s">
         <v>4</v>
@@ -7806,39 +7935,51 @@
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B521" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C521" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B522" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C522" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B523" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C523" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B524" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C524" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B525" s="0" t="s">
         <v>4</v>
@@ -7846,7 +7987,7 @@
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B526" s="0" t="s">
         <v>4</v>
@@ -7854,31 +7995,40 @@
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B527" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C527" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B528" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C528" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B529" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C529" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B530" s="0" t="s">
         <v>4</v>
@@ -7886,55 +8036,73 @@
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B531" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C531" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B532" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C532" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B533" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C533" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B534" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C534" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B535" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C535" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B536" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C536" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B537" s="0" t="s">
         <v>4</v>
@@ -7942,31 +8110,40 @@
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B538" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C538" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B539" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C539" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B540" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C540" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B541" s="0" t="s">
         <v>4</v>
@@ -7974,15 +8151,18 @@
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B542" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C542" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B543" s="0" t="s">
         <v>4</v>
@@ -7990,7 +8170,7 @@
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B544" s="0" t="s">
         <v>4</v>
@@ -7998,39 +8178,51 @@
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B545" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C545" s="0" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B546" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C546" s="0" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B547" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C547" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B548" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C548" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B549" s="0" t="s">
         <v>4</v>
@@ -8038,7 +8230,7 @@
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B550" s="0" t="s">
         <v>4</v>
@@ -8046,7 +8238,7 @@
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B551" s="0" t="s">
         <v>4</v>
@@ -8054,7 +8246,7 @@
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B552" s="0" t="s">
         <v>4</v>
@@ -8062,7 +8254,7 @@
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B553" s="0" t="s">
         <v>4</v>
@@ -8070,7 +8262,7 @@
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B554" s="0" t="s">
         <v>4</v>
@@ -8078,7 +8270,7 @@
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B555" s="0" t="s">
         <v>4</v>
@@ -8086,7 +8278,7 @@
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B556" s="0" t="s">
         <v>4</v>
@@ -8094,7 +8286,7 @@
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B557" s="0" t="s">
         <v>4</v>
@@ -8102,7 +8294,7 @@
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B558" s="0" t="s">
         <v>4</v>
@@ -8110,31 +8302,40 @@
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B559" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C559" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B560" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C560" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B561" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C561" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B562" s="0" t="s">
         <v>4</v>
@@ -8142,15 +8343,18 @@
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B563" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C563" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B564" s="0" t="s">
         <v>4</v>
@@ -8158,15 +8362,18 @@
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B565" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C565" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B566" s="0" t="s">
         <v>4</v>
@@ -8174,23 +8381,29 @@
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B567" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C567" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B568" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C568" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B569" s="0" t="s">
         <v>4</v>
@@ -8198,39 +8411,51 @@
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B570" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C570" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B571" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C571" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B572" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C572" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B573" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C573" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B574" s="0" t="s">
         <v>4</v>
@@ -8238,7 +8463,7 @@
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B575" s="0" t="s">
         <v>4</v>
@@ -8246,7 +8471,7 @@
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B576" s="0" t="s">
         <v>4</v>
@@ -8254,7 +8479,7 @@
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B577" s="0" t="s">
         <v>4</v>
@@ -8262,7 +8487,7 @@
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B578" s="0" t="s">
         <v>4</v>
@@ -8270,7 +8495,7 @@
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B579" s="0" t="s">
         <v>4</v>
@@ -8278,31 +8503,40 @@
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B580" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C580" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B581" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C581" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B582" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C582" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B583" s="0" t="s">
         <v>4</v>
@@ -8310,7 +8544,7 @@
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B584" s="0" t="s">
         <v>4</v>
@@ -8318,7 +8552,7 @@
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B585" s="0" t="s">
         <v>4</v>
@@ -8326,7 +8560,7 @@
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B586" s="0" t="s">
         <v>4</v>
@@ -8334,23 +8568,29 @@
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B587" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C587" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B588" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C588" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B589" s="0" t="s">
         <v>4</v>
@@ -8358,7 +8598,7 @@
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B590" s="0" t="s">
         <v>4</v>
@@ -8366,15 +8606,18 @@
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B591" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C591" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B592" s="0" t="s">
         <v>4</v>
@@ -8382,7 +8625,7 @@
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B593" s="0" t="s">
         <v>4</v>
@@ -8390,7 +8633,7 @@
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B594" s="0" t="s">
         <v>4</v>
@@ -8398,15 +8641,18 @@
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B595" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C595" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B596" s="0" t="s">
         <v>4</v>
@@ -8414,31 +8660,40 @@
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B597" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C597" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B598" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C598" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B599" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C599" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B600" s="0" t="s">
         <v>4</v>
@@ -8446,7 +8701,7 @@
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B601" s="0" t="s">
         <v>4</v>
@@ -8454,15 +8709,18 @@
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B602" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C602" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B603" s="0" t="s">
         <v>4</v>
@@ -8470,7 +8728,7 @@
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B604" s="0" t="s">
         <v>4</v>
@@ -8478,7 +8736,7 @@
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B605" s="0" t="s">
         <v>4</v>
@@ -8486,7 +8744,7 @@
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B606" s="0" t="s">
         <v>4</v>
@@ -8494,7 +8752,7 @@
     </row>
     <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B607" s="0" t="s">
         <v>4</v>
@@ -8502,7 +8760,7 @@
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B608" s="0" t="s">
         <v>4</v>
@@ -8510,15 +8768,18 @@
     </row>
     <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B609" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C609" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B610" s="0" t="s">
         <v>4</v>
@@ -8526,7 +8787,7 @@
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B611" s="0" t="s">
         <v>4</v>
@@ -8534,7 +8795,7 @@
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B612" s="0" t="s">
         <v>4</v>
@@ -8542,7 +8803,7 @@
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B613" s="0" t="s">
         <v>4</v>
@@ -8550,55 +8811,73 @@
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B614" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C614" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B615" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C615" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B616" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C616" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B617" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C617" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B618" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C618" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B619" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C619" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B620" s="0" t="s">
         <v>4</v>
@@ -8606,47 +8885,62 @@
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B621" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C621" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B622" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C622" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B623" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C623" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B624" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C624" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B625" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C625" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B626" s="0" t="s">
         <v>4</v>
@@ -8654,7 +8948,7 @@
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B627" s="0" t="s">
         <v>4</v>
@@ -8662,7 +8956,7 @@
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B628" s="0" t="s">
         <v>4</v>
@@ -8670,7 +8964,7 @@
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B629" s="0" t="s">
         <v>4</v>
@@ -8678,7 +8972,7 @@
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B630" s="0" t="s">
         <v>4</v>
@@ -8686,7 +8980,7 @@
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B631" s="0" t="s">
         <v>4</v>
@@ -8694,15 +8988,18 @@
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B632" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C632" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B633" s="0" t="s">
         <v>4</v>
@@ -8710,31 +9007,40 @@
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B634" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C634" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B635" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C635" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B636" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C636" s="0" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B637" s="0" t="s">
         <v>4</v>
@@ -8742,7 +9048,7 @@
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B638" s="0" t="s">
         <v>4</v>
@@ -8750,7 +9056,7 @@
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B639" s="0" t="s">
         <v>4</v>
@@ -8758,7 +9064,7 @@
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B640" s="0" t="s">
         <v>4</v>
@@ -8766,7 +9072,7 @@
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B641" s="0" t="s">
         <v>4</v>
@@ -8774,7 +9080,7 @@
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B642" s="0" t="s">
         <v>4</v>
@@ -8782,7 +9088,7 @@
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B643" s="0" t="s">
         <v>4</v>
@@ -8790,7 +9096,7 @@
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B644" s="0" t="s">
         <v>4</v>
@@ -8798,7 +9104,7 @@
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B645" s="0" t="s">
         <v>4</v>
@@ -8806,7 +9112,7 @@
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B646" s="0" t="s">
         <v>4</v>
@@ -8814,7 +9120,7 @@
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B647" s="0" t="s">
         <v>4</v>
@@ -8822,7 +9128,7 @@
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B648" s="0" t="s">
         <v>4</v>
@@ -8830,7 +9136,7 @@
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B649" s="0" t="s">
         <v>4</v>
@@ -8838,7 +9144,7 @@
     </row>
     <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B650" s="0" t="s">
         <v>4</v>
@@ -8846,7 +9152,7 @@
     </row>
     <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B651" s="0" t="s">
         <v>4</v>
@@ -8854,7 +9160,7 @@
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B652" s="0" t="s">
         <v>4</v>
@@ -8862,7 +9168,7 @@
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B653" s="0" t="s">
         <v>4</v>
@@ -8870,7 +9176,7 @@
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B654" s="0" t="s">
         <v>4</v>
@@ -8878,7 +9184,7 @@
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B655" s="0" t="s">
         <v>4</v>
@@ -8886,7 +9192,7 @@
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B656" s="0" t="s">
         <v>4</v>
@@ -8894,7 +9200,7 @@
     </row>
     <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B657" s="0" t="s">
         <v>4</v>
@@ -8902,7 +9208,7 @@
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B658" s="0" t="s">
         <v>4</v>
@@ -8910,7 +9216,7 @@
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B659" s="0" t="s">
         <v>4</v>
@@ -8918,7 +9224,7 @@
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B660" s="0" t="s">
         <v>4</v>
@@ -8926,7 +9232,7 @@
     </row>
     <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B661" s="0" t="s">
         <v>4</v>
@@ -8934,7 +9240,7 @@
     </row>
     <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B662" s="0" t="s">
         <v>4</v>
@@ -8942,7 +9248,7 @@
     </row>
     <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B663" s="0" t="s">
         <v>4</v>
@@ -8950,7 +9256,7 @@
     </row>
     <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B664" s="0" t="s">
         <v>4</v>
@@ -8958,7 +9264,7 @@
     </row>
     <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B665" s="0" t="s">
         <v>4</v>
@@ -8966,7 +9272,7 @@
     </row>
     <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B666" s="0" t="s">
         <v>4</v>
@@ -8974,7 +9280,7 @@
     </row>
     <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B667" s="0" t="s">
         <v>4</v>
@@ -8982,7 +9288,7 @@
     </row>
     <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B668" s="0" t="s">
         <v>4</v>
@@ -8990,7 +9296,7 @@
     </row>
     <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B669" s="0" t="s">
         <v>4</v>
@@ -8998,7 +9304,7 @@
     </row>
     <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B670" s="0" t="s">
         <v>4</v>
@@ -9006,7 +9312,7 @@
     </row>
     <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B671" s="0" t="s">
         <v>4</v>
@@ -9014,7 +9320,7 @@
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B672" s="0" t="s">
         <v>4</v>
@@ -9022,7 +9328,7 @@
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B673" s="0" t="s">
         <v>4</v>
@@ -9030,7 +9336,7 @@
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B674" s="0" t="s">
         <v>4</v>
@@ -9038,7 +9344,7 @@
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B675" s="0" t="s">
         <v>4</v>
@@ -9046,7 +9352,7 @@
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B676" s="0" t="s">
         <v>4</v>
@@ -9054,7 +9360,7 @@
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="0" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B677" s="0" t="s">
         <v>4</v>
@@ -9062,7 +9368,7 @@
     </row>
     <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B678" s="0" t="s">
         <v>4</v>
@@ -9070,7 +9376,7 @@
     </row>
     <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B679" s="0" t="s">
         <v>4</v>
@@ -9078,7 +9384,7 @@
     </row>
     <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="0" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B680" s="0" t="s">
         <v>4</v>
@@ -9086,7 +9392,7 @@
     </row>
     <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="0" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B681" s="0" t="s">
         <v>4</v>
@@ -9094,7 +9400,7 @@
     </row>
     <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="0" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B682" s="0" t="s">
         <v>4</v>
@@ -9102,7 +9408,7 @@
     </row>
     <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="0" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B683" s="0" t="s">
         <v>4</v>
@@ -9110,7 +9416,7 @@
     </row>
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="0" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B684" s="0" t="s">
         <v>4</v>
@@ -9118,7 +9424,7 @@
     </row>
     <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B685" s="0" t="s">
         <v>4</v>
@@ -9126,7 +9432,7 @@
     </row>
     <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="0" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B686" s="0" t="s">
         <v>4</v>
@@ -9134,7 +9440,7 @@
     </row>
     <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B687" s="0" t="s">
         <v>4</v>
@@ -9142,7 +9448,7 @@
     </row>
     <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="0" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B688" s="0" t="s">
         <v>4</v>
@@ -9150,7 +9456,7 @@
     </row>
     <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B689" s="0" t="s">
         <v>4</v>
@@ -9158,7 +9464,7 @@
     </row>
     <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="0" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B690" s="0" t="s">
         <v>4</v>
@@ -9166,7 +9472,7 @@
     </row>
     <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B691" s="0" t="s">
         <v>4</v>
@@ -9174,7 +9480,7 @@
     </row>
     <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="0" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B692" s="0" t="s">
         <v>4</v>
@@ -9182,7 +9488,7 @@
     </row>
     <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B693" s="0" t="s">
         <v>4</v>
@@ -9190,7 +9496,7 @@
     </row>
     <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B694" s="0" t="s">
         <v>4</v>
@@ -9198,7 +9504,7 @@
     </row>
     <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B695" s="0" t="s">
         <v>4</v>
@@ -9206,7 +9512,7 @@
     </row>
     <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B696" s="0" t="s">
         <v>4</v>
@@ -9214,7 +9520,7 @@
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B697" s="0" t="s">
         <v>4</v>
@@ -9222,7 +9528,7 @@
     </row>
     <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B698" s="0" t="s">
         <v>4</v>
@@ -9230,7 +9536,7 @@
     </row>
     <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B699" s="0" t="s">
         <v>4</v>
@@ -9238,7 +9544,7 @@
     </row>
     <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B700" s="0" t="s">
         <v>4</v>
@@ -9246,7 +9552,7 @@
     </row>
     <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="0" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B701" s="0" t="s">
         <v>4</v>
@@ -9254,7 +9560,7 @@
     </row>
     <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="0" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B702" s="0" t="s">
         <v>4</v>
@@ -9262,7 +9568,7 @@
     </row>
     <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="0" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B703" s="0" t="s">
         <v>4</v>
@@ -9270,7 +9576,7 @@
     </row>
     <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="0" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B704" s="0" t="s">
         <v>4</v>
@@ -9278,7 +9584,7 @@
     </row>
     <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="0" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B705" s="0" t="s">
         <v>4</v>
@@ -9286,7 +9592,7 @@
     </row>
     <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="0" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B706" s="0" t="s">
         <v>4</v>
@@ -9294,7 +9600,7 @@
     </row>
     <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="0" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B707" s="0" t="s">
         <v>4</v>
@@ -9302,7 +9608,7 @@
     </row>
     <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B708" s="0" t="s">
         <v>4</v>
@@ -9310,7 +9616,7 @@
     </row>
     <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="0" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B709" s="0" t="s">
         <v>4</v>
@@ -9318,7 +9624,7 @@
     </row>
     <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B710" s="0" t="s">
         <v>4</v>
@@ -9326,7 +9632,7 @@
     </row>
     <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B711" s="0" t="s">
         <v>4</v>
@@ -9334,7 +9640,7 @@
     </row>
     <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B712" s="0" t="s">
         <v>4</v>
@@ -9342,7 +9648,7 @@
     </row>
     <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B713" s="0" t="s">
         <v>4</v>
@@ -9350,7 +9656,7 @@
     </row>
     <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B714" s="0" t="s">
         <v>4</v>
@@ -9358,7 +9664,7 @@
     </row>
     <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B715" s="0" t="s">
         <v>4</v>
@@ -9366,7 +9672,7 @@
     </row>
     <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B716" s="0" t="s">
         <v>4</v>
@@ -9374,7 +9680,7 @@
     </row>
     <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B717" s="0" t="s">
         <v>4</v>
@@ -9382,7 +9688,7 @@
     </row>
     <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B718" s="0" t="s">
         <v>4</v>
@@ -9390,7 +9696,7 @@
     </row>
     <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B719" s="0" t="s">
         <v>4</v>
@@ -9398,7 +9704,7 @@
     </row>
     <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B720" s="0" t="s">
         <v>4</v>
@@ -9406,7 +9712,7 @@
     </row>
     <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="0" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B721" s="0" t="s">
         <v>4</v>
@@ -9414,7 +9720,7 @@
     </row>
     <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="0" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B722" s="0" t="s">
         <v>4</v>
@@ -9422,7 +9728,7 @@
     </row>
     <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="0" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B723" s="0" t="s">
         <v>4</v>
@@ -9430,7 +9736,7 @@
     </row>
     <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="0" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B724" s="0" t="s">
         <v>4</v>
@@ -9438,7 +9744,7 @@
     </row>
     <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B725" s="0" t="s">
         <v>4</v>
@@ -9446,7 +9752,7 @@
     </row>
     <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B726" s="0" t="s">
         <v>4</v>
@@ -9454,7 +9760,7 @@
     </row>
     <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="0" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B727" s="0" t="s">
         <v>4</v>
@@ -9462,7 +9768,7 @@
     </row>
     <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="0" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B728" s="0" t="s">
         <v>4</v>
@@ -9470,7 +9776,7 @@
     </row>
     <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="0" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B729" s="0" t="s">
         <v>4</v>
@@ -9478,7 +9784,7 @@
     </row>
     <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B730" s="0" t="s">
         <v>4</v>
@@ -9486,7 +9792,7 @@
     </row>
     <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="0" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B731" s="0" t="s">
         <v>4</v>
@@ -9494,7 +9800,7 @@
     </row>
     <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B732" s="0" t="s">
         <v>4</v>
@@ -9502,7 +9808,7 @@
     </row>
     <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B733" s="0" t="s">
         <v>4</v>
@@ -9510,7 +9816,7 @@
     </row>
     <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B734" s="0" t="s">
         <v>4</v>
@@ -9518,7 +9824,7 @@
     </row>
     <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="0" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B735" s="0" t="s">
         <v>4</v>
@@ -9526,7 +9832,7 @@
     </row>
     <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="0" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B736" s="0" t="s">
         <v>4</v>
@@ -9534,7 +9840,7 @@
     </row>
     <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B737" s="0" t="s">
         <v>4</v>
@@ -9542,7 +9848,7 @@
     </row>
     <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B738" s="0" t="s">
         <v>4</v>
@@ -9550,7 +9856,7 @@
     </row>
     <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="0" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B739" s="0" t="s">
         <v>4</v>
@@ -9558,7 +9864,7 @@
     </row>
     <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B740" s="0" t="s">
         <v>4</v>
@@ -9566,7 +9872,7 @@
     </row>
     <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B741" s="0" t="s">
         <v>4</v>
@@ -9574,7 +9880,7 @@
     </row>
     <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B742" s="0" t="s">
         <v>4</v>
@@ -9582,7 +9888,7 @@
     </row>
     <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B743" s="0" t="s">
         <v>4</v>
@@ -9590,7 +9896,7 @@
     </row>
     <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="0" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B744" s="0" t="s">
         <v>4</v>
@@ -9598,7 +9904,7 @@
     </row>
     <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B745" s="0" t="s">
         <v>4</v>
@@ -9606,7 +9912,7 @@
     </row>
     <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="0" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B746" s="0" t="s">
         <v>4</v>
@@ -9614,7 +9920,7 @@
     </row>
     <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B747" s="0" t="s">
         <v>4</v>
@@ -9622,7 +9928,7 @@
     </row>
     <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="0" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B748" s="0" t="s">
         <v>4</v>
@@ -9630,7 +9936,7 @@
     </row>
     <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="0" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B749" s="0" t="s">
         <v>4</v>
@@ -9638,7 +9944,7 @@
     </row>
     <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="0" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B750" s="0" t="s">
         <v>4</v>
@@ -9646,7 +9952,7 @@
     </row>
     <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="0" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B751" s="0" t="s">
         <v>4</v>
@@ -9654,7 +9960,7 @@
     </row>
     <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="0" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B752" s="0" t="s">
         <v>4</v>
@@ -9662,7 +9968,7 @@
     </row>
     <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="0" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B753" s="0" t="s">
         <v>4</v>
@@ -9670,7 +9976,7 @@
     </row>
     <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="0" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B754" s="0" t="s">
         <v>4</v>
@@ -9678,7 +9984,7 @@
     </row>
     <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="0" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B755" s="0" t="s">
         <v>4</v>
@@ -9686,7 +9992,7 @@
     </row>
     <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="0" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B756" s="0" t="s">
         <v>4</v>
@@ -9694,7 +10000,7 @@
     </row>
     <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="0" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B757" s="0" t="s">
         <v>4</v>
@@ -9702,7 +10008,7 @@
     </row>
     <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="0" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B758" s="0" t="s">
         <v>4</v>
@@ -9710,7 +10016,7 @@
     </row>
     <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B759" s="0" t="s">
         <v>4</v>
@@ -9718,7 +10024,7 @@
     </row>
     <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="0" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B760" s="0" t="s">
         <v>4</v>
@@ -9726,7 +10032,7 @@
     </row>
     <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="0" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B761" s="0" t="s">
         <v>4</v>
@@ -9734,7 +10040,7 @@
     </row>
     <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="0" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B762" s="0" t="s">
         <v>4</v>
@@ -9742,7 +10048,7 @@
     </row>
     <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="0" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B763" s="0" t="s">
         <v>4</v>
@@ -9750,7 +10056,7 @@
     </row>
     <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="0" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B764" s="0" t="s">
         <v>4</v>
@@ -9758,7 +10064,7 @@
     </row>
     <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="0" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B765" s="0" t="s">
         <v>4</v>
@@ -9766,7 +10072,7 @@
     </row>
     <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="0" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B766" s="0" t="s">
         <v>4</v>
@@ -9774,7 +10080,7 @@
     </row>
     <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="0" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B767" s="0" t="s">
         <v>4</v>
@@ -9782,7 +10088,7 @@
     </row>
     <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B768" s="0" t="s">
         <v>4</v>
@@ -9790,7 +10096,7 @@
     </row>
     <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="0" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B769" s="0" t="s">
         <v>4</v>
@@ -9798,7 +10104,7 @@
     </row>
     <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="0" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B770" s="0" t="s">
         <v>4</v>
@@ -9806,7 +10112,7 @@
     </row>
     <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="0" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B771" s="0" t="s">
         <v>4</v>
@@ -9814,7 +10120,7 @@
     </row>
     <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="0" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B772" s="0" t="s">
         <v>4</v>
@@ -9822,7 +10128,7 @@
     </row>
     <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="0" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B773" s="0" t="s">
         <v>4</v>
@@ -9830,7 +10136,7 @@
     </row>
     <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="0" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B774" s="0" t="s">
         <v>4</v>
@@ -9838,7 +10144,7 @@
     </row>
     <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="0" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B775" s="0" t="s">
         <v>4</v>
@@ -9846,7 +10152,7 @@
     </row>
     <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B776" s="0" t="s">
         <v>4</v>
@@ -9854,7 +10160,7 @@
     </row>
     <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B777" s="0" t="s">
         <v>4</v>
@@ -9862,7 +10168,7 @@
     </row>
     <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="0" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B778" s="0" t="s">
         <v>4</v>
@@ -9870,7 +10176,7 @@
     </row>
     <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="0" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B779" s="0" t="s">
         <v>4</v>
@@ -9878,7 +10184,7 @@
     </row>
     <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B780" s="0" t="s">
         <v>4</v>
@@ -9886,7 +10192,7 @@
     </row>
     <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="0" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B781" s="0" t="s">
         <v>4</v>
@@ -9894,7 +10200,7 @@
     </row>
     <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="0" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B782" s="0" t="s">
         <v>4</v>
@@ -9902,7 +10208,7 @@
     </row>
     <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="0" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B783" s="0" t="s">
         <v>4</v>
@@ -9910,7 +10216,7 @@
     </row>
     <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B784" s="0" t="s">
         <v>4</v>
@@ -9918,7 +10224,7 @@
     </row>
     <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="0" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B785" s="0" t="s">
         <v>4</v>
@@ -9926,7 +10232,7 @@
     </row>
     <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="0" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B786" s="0" t="s">
         <v>4</v>
@@ -9934,7 +10240,7 @@
     </row>
     <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B787" s="0" t="s">
         <v>4</v>
@@ -9942,7 +10248,7 @@
     </row>
     <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B788" s="0" t="s">
         <v>4</v>
@@ -9950,7 +10256,7 @@
     </row>
     <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B789" s="0" t="s">
         <v>4</v>
@@ -9958,7 +10264,7 @@
     </row>
     <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="0" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B790" s="0" t="s">
         <v>4</v>
@@ -9966,7 +10272,7 @@
     </row>
     <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="0" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B791" s="0" t="s">
         <v>4</v>
@@ -9974,7 +10280,7 @@
     </row>
     <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="0" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B792" s="0" t="s">
         <v>4</v>
@@ -9982,7 +10288,7 @@
     </row>
     <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B793" s="0" t="s">
         <v>4</v>
@@ -9990,7 +10296,7 @@
     </row>
     <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="0" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B794" s="0" t="s">
         <v>4</v>
@@ -9998,7 +10304,7 @@
     </row>
     <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B795" s="0" t="s">
         <v>4</v>
@@ -10006,7 +10312,7 @@
     </row>
     <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="0" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B796" s="0" t="s">
         <v>4</v>
@@ -10014,7 +10320,7 @@
     </row>
     <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="0" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B797" s="0" t="s">
         <v>4</v>
@@ -10022,7 +10328,7 @@
     </row>
     <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="0" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B798" s="0" t="s">
         <v>4</v>
@@ -10030,7 +10336,7 @@
     </row>
     <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="0" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B799" s="0" t="s">
         <v>4</v>
@@ -10038,7 +10344,7 @@
     </row>
     <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="0" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B800" s="0" t="s">
         <v>4</v>
@@ -10046,7 +10352,7 @@
     </row>
     <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="0" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B801" s="0" t="s">
         <v>4</v>
@@ -10054,7 +10360,7 @@
     </row>
     <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="0" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B802" s="0" t="s">
         <v>4</v>
@@ -10062,7 +10368,7 @@
     </row>
     <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="0" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B803" s="0" t="s">
         <v>4</v>
@@ -10070,7 +10376,7 @@
     </row>
     <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="0" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B804" s="0" t="s">
         <v>4</v>
@@ -10078,7 +10384,7 @@
     </row>
     <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="0" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B805" s="0" t="s">
         <v>4</v>
@@ -10086,7 +10392,7 @@
     </row>
     <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="0" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B806" s="0" t="s">
         <v>4</v>
@@ -10094,7 +10400,7 @@
     </row>
     <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B807" s="0" t="s">
         <v>4</v>
@@ -10102,7 +10408,7 @@
     </row>
     <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B808" s="0" t="s">
         <v>4</v>
@@ -10110,7 +10416,7 @@
     </row>
     <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="0" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B809" s="0" t="s">
         <v>4</v>
@@ -10118,7 +10424,7 @@
     </row>
     <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="0" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B810" s="0" t="s">
         <v>4</v>
@@ -10126,7 +10432,7 @@
     </row>
     <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="0" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B811" s="0" t="s">
         <v>4</v>
@@ -10134,7 +10440,7 @@
     </row>
     <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="0" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B812" s="0" t="s">
         <v>4</v>
@@ -10142,7 +10448,7 @@
     </row>
     <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="0" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B813" s="0" t="s">
         <v>4</v>
@@ -10150,7 +10456,7 @@
     </row>
     <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="0" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B814" s="0" t="s">
         <v>4</v>
@@ -10158,7 +10464,7 @@
     </row>
     <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="0" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B815" s="0" t="s">
         <v>4</v>
@@ -10166,7 +10472,7 @@
     </row>
     <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B816" s="0" t="s">
         <v>4</v>
@@ -10174,7 +10480,7 @@
     </row>
     <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="0" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B817" s="0" t="s">
         <v>4</v>
@@ -10182,7 +10488,7 @@
     </row>
     <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="0" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B818" s="0" t="s">
         <v>4</v>
@@ -10190,7 +10496,7 @@
     </row>
     <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="0" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B819" s="0" t="s">
         <v>4</v>
@@ -10198,7 +10504,7 @@
     </row>
     <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="0" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B820" s="0" t="s">
         <v>4</v>
@@ -10206,7 +10512,7 @@
     </row>
     <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="0" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B821" s="0" t="s">
         <v>4</v>
@@ -10214,7 +10520,7 @@
     </row>
     <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="0" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B822" s="0" t="s">
         <v>4</v>
@@ -10222,7 +10528,7 @@
     </row>
     <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="0" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B823" s="0" t="s">
         <v>4</v>
@@ -10230,7 +10536,7 @@
     </row>
     <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="0" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B824" s="0" t="s">
         <v>4</v>
@@ -10238,7 +10544,7 @@
     </row>
     <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="0" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B825" s="0" t="s">
         <v>4</v>
@@ -10246,7 +10552,7 @@
     </row>
     <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="0" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B826" s="0" t="s">
         <v>4</v>
@@ -10254,7 +10560,7 @@
     </row>
     <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="0" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B827" s="0" t="s">
         <v>4</v>
@@ -10262,7 +10568,7 @@
     </row>
     <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="0" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B828" s="0" t="s">
         <v>4</v>
@@ -10270,7 +10576,7 @@
     </row>
     <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="0" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B829" s="0" t="s">
         <v>4</v>
@@ -10278,7 +10584,7 @@
     </row>
     <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="0" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B830" s="0" t="s">
         <v>4</v>
@@ -10286,7 +10592,7 @@
     </row>
     <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="0" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B831" s="0" t="s">
         <v>4</v>
@@ -10294,7 +10600,7 @@
     </row>
     <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="0" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B832" s="0" t="s">
         <v>4</v>
@@ -10302,7 +10608,7 @@
     </row>
     <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="0" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B833" s="0" t="s">
         <v>4</v>
@@ -10310,7 +10616,7 @@
     </row>
     <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="0" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B834" s="0" t="s">
         <v>4</v>
@@ -10318,7 +10624,7 @@
     </row>
     <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="0" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B835" s="0" t="s">
         <v>4</v>
@@ -10326,7 +10632,7 @@
     </row>
     <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="0" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B836" s="0" t="s">
         <v>4</v>
@@ -10334,7 +10640,7 @@
     </row>
     <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="0" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B837" s="0" t="s">
         <v>4</v>
@@ -10342,7 +10648,7 @@
     </row>
     <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="0" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B838" s="0" t="s">
         <v>4</v>
@@ -10350,7 +10656,7 @@
     </row>
     <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="0" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B839" s="0" t="s">
         <v>4</v>
@@ -10358,7 +10664,7 @@
     </row>
     <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="0" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B840" s="0" t="s">
         <v>4</v>
@@ -10366,7 +10672,7 @@
     </row>
     <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="0" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B841" s="0" t="s">
         <v>4</v>
@@ -10374,7 +10680,7 @@
     </row>
     <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="0" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B842" s="0" t="s">
         <v>4</v>
@@ -10382,7 +10688,7 @@
     </row>
     <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="0" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B843" s="0" t="s">
         <v>4</v>
@@ -10390,7 +10696,7 @@
     </row>
     <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="0" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B844" s="0" t="s">
         <v>4</v>
@@ -10398,7 +10704,7 @@
     </row>
     <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="0" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B845" s="0" t="s">
         <v>4</v>
@@ -10406,7 +10712,7 @@
     </row>
     <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="0" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B846" s="0" t="s">
         <v>4</v>
@@ -10414,7 +10720,7 @@
     </row>
     <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="0" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B847" s="0" t="s">
         <v>4</v>
@@ -10422,7 +10728,7 @@
     </row>
     <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="0" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B848" s="0" t="s">
         <v>4</v>
@@ -10430,7 +10736,7 @@
     </row>
     <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="0" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B849" s="0" t="s">
         <v>4</v>
@@ -10438,7 +10744,7 @@
     </row>
     <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="0" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B850" s="0" t="s">
         <v>4</v>
@@ -10446,7 +10752,7 @@
     </row>
     <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="0" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B851" s="0" t="s">
         <v>4</v>
@@ -10454,7 +10760,7 @@
     </row>
     <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="0" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B852" s="0" t="s">
         <v>4</v>
@@ -10462,7 +10768,7 @@
     </row>
     <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="0" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B853" s="0" t="s">
         <v>4</v>
@@ -10470,7 +10776,7 @@
     </row>
     <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="0" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B854" s="0" t="s">
         <v>4</v>
@@ -10478,7 +10784,7 @@
     </row>
     <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="0" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B855" s="0" t="s">
         <v>4</v>
@@ -10486,7 +10792,7 @@
     </row>
     <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="0" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B856" s="0" t="s">
         <v>4</v>
@@ -10494,7 +10800,7 @@
     </row>
     <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="0" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B857" s="0" t="s">
         <v>4</v>
@@ -10502,7 +10808,7 @@
     </row>
     <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="0" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B858" s="0" t="s">
         <v>4</v>
@@ -10510,7 +10816,7 @@
     </row>
     <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="0" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B859" s="0" t="s">
         <v>4</v>
@@ -10518,7 +10824,7 @@
     </row>
     <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="0" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B860" s="0" t="s">
         <v>4</v>
@@ -10526,7 +10832,7 @@
     </row>
     <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="0" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B861" s="0" t="s">
         <v>4</v>
@@ -10534,7 +10840,7 @@
     </row>
     <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="0" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B862" s="0" t="s">
         <v>4</v>
@@ -10542,7 +10848,7 @@
     </row>
     <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="0" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B863" s="0" t="s">
         <v>4</v>
@@ -10550,7 +10856,7 @@
     </row>
     <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="0" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B864" s="0" t="s">
         <v>4</v>
@@ -10558,7 +10864,7 @@
     </row>
     <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="0" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B865" s="0" t="s">
         <v>4</v>
@@ -10566,7 +10872,7 @@
     </row>
     <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="0" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B866" s="0" t="s">
         <v>4</v>
@@ -10574,7 +10880,7 @@
     </row>
     <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="0" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B867" s="0" t="s">
         <v>4</v>
@@ -10582,7 +10888,7 @@
     </row>
     <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="0" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B868" s="0" t="s">
         <v>4</v>
@@ -10590,7 +10896,7 @@
     </row>
     <row r="869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="0" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B869" s="0" t="s">
         <v>4</v>
@@ -10598,7 +10904,7 @@
     </row>
     <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="0" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B870" s="0" t="s">
         <v>4</v>
@@ -10606,7 +10912,7 @@
     </row>
     <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="0" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B871" s="0" t="s">
         <v>4</v>
@@ -10614,7 +10920,7 @@
     </row>
     <row r="872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="0" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B872" s="0" t="s">
         <v>4</v>
@@ -10622,7 +10928,7 @@
     </row>
     <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="0" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B873" s="0" t="s">
         <v>4</v>
@@ -10630,7 +10936,7 @@
     </row>
     <row r="874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="0" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B874" s="0" t="s">
         <v>4</v>
@@ -10638,7 +10944,7 @@
     </row>
     <row r="875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="0" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B875" s="0" t="s">
         <v>4</v>
@@ -10646,7 +10952,7 @@
     </row>
     <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="0" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B876" s="0" t="s">
         <v>4</v>
@@ -10654,7 +10960,7 @@
     </row>
     <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="0" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B877" s="0" t="s">
         <v>4</v>
@@ -10662,7 +10968,7 @@
     </row>
     <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="0" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B878" s="0" t="s">
         <v>4</v>
@@ -10670,7 +10976,7 @@
     </row>
     <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="0" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B879" s="0" t="s">
         <v>4</v>
@@ -10678,7 +10984,7 @@
     </row>
     <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="0" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B880" s="0" t="s">
         <v>4</v>
@@ -10686,7 +10992,7 @@
     </row>
     <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="0" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B881" s="0" t="s">
         <v>4</v>
@@ -10694,7 +11000,7 @@
     </row>
     <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="0" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B882" s="0" t="s">
         <v>4</v>
@@ -10702,7 +11008,7 @@
     </row>
     <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="0" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B883" s="0" t="s">
         <v>4</v>
@@ -10710,7 +11016,7 @@
     </row>
     <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="0" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B884" s="0" t="s">
         <v>4</v>
@@ -10718,7 +11024,7 @@
     </row>
     <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="0" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B885" s="0" t="s">
         <v>4</v>
@@ -10726,7 +11032,7 @@
     </row>
     <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="0" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B886" s="0" t="s">
         <v>4</v>
@@ -10734,7 +11040,7 @@
     </row>
     <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="0" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B887" s="0" t="s">
         <v>4</v>
@@ -10742,7 +11048,7 @@
     </row>
     <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="0" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B888" s="0" t="s">
         <v>4</v>
@@ -10750,7 +11056,7 @@
     </row>
     <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="0" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B889" s="0" t="s">
         <v>4</v>
@@ -10758,7 +11064,7 @@
     </row>
     <row r="890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="0" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B890" s="0" t="s">
         <v>4</v>
@@ -10766,7 +11072,7 @@
     </row>
     <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="0" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B891" s="0" t="s">
         <v>4</v>
@@ -10774,7 +11080,7 @@
     </row>
     <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="0" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B892" s="0" t="s">
         <v>4</v>
@@ -10782,7 +11088,7 @@
     </row>
     <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="0" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B893" s="0" t="s">
         <v>4</v>
@@ -10790,7 +11096,7 @@
     </row>
     <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B894" s="0" t="s">
         <v>4</v>
@@ -10798,7 +11104,7 @@
     </row>
     <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="0" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B895" s="0" t="s">
         <v>4</v>
@@ -10806,7 +11112,7 @@
     </row>
     <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="0" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B896" s="0" t="s">
         <v>4</v>
@@ -10814,7 +11120,7 @@
     </row>
     <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="0" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B897" s="0" t="s">
         <v>4</v>
@@ -10822,7 +11128,7 @@
     </row>
     <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="0" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B898" s="0" t="s">
         <v>4</v>
@@ -10830,7 +11136,7 @@
     </row>
     <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="0" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B899" s="0" t="s">
         <v>4</v>
@@ -10838,7 +11144,7 @@
     </row>
     <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="0" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B900" s="0" t="s">
         <v>4</v>
@@ -10846,7 +11152,7 @@
     </row>
     <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="0" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B901" s="0" t="s">
         <v>4</v>
@@ -10854,7 +11160,7 @@
     </row>
     <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="0" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B902" s="0" t="s">
         <v>4</v>
@@ -10862,7 +11168,7 @@
     </row>
     <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="0" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B903" s="0" t="s">
         <v>4</v>
@@ -10870,7 +11176,7 @@
     </row>
     <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="0" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B904" s="0" t="s">
         <v>4</v>
@@ -10878,7 +11184,7 @@
     </row>
     <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="0" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B905" s="0" t="s">
         <v>4</v>
@@ -10886,7 +11192,7 @@
     </row>
     <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="0" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B906" s="0" t="s">
         <v>4</v>
@@ -10894,7 +11200,7 @@
     </row>
     <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="0" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B907" s="0" t="s">
         <v>4</v>
@@ -10902,7 +11208,7 @@
     </row>
     <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="0" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B908" s="0" t="s">
         <v>4</v>
@@ -10910,7 +11216,7 @@
     </row>
     <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="0" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B909" s="0" t="s">
         <v>4</v>
@@ -10918,7 +11224,7 @@
     </row>
     <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="0" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B910" s="0" t="s">
         <v>4</v>
@@ -10926,7 +11232,7 @@
     </row>
     <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="0" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B911" s="0" t="s">
         <v>4</v>
@@ -10934,7 +11240,7 @@
     </row>
     <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="0" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B912" s="0" t="s">
         <v>4</v>
@@ -10942,7 +11248,7 @@
     </row>
     <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="0" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B913" s="0" t="s">
         <v>4</v>
@@ -10950,7 +11256,7 @@
     </row>
     <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B914" s="0" t="s">
         <v>4</v>
@@ -10958,7 +11264,7 @@
     </row>
     <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="0" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B915" s="0" t="s">
         <v>4</v>
@@ -10966,7 +11272,7 @@
     </row>
     <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="0" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B916" s="0" t="s">
         <v>4</v>
@@ -10974,7 +11280,7 @@
     </row>
     <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="0" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B917" s="0" t="s">
         <v>4</v>
@@ -10982,7 +11288,7 @@
     </row>
     <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="0" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B918" s="0" t="s">
         <v>4</v>
@@ -10990,7 +11296,7 @@
     </row>
     <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="0" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B919" s="0" t="s">
         <v>4</v>
@@ -10998,7 +11304,7 @@
     </row>
     <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="0" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B920" s="0" t="s">
         <v>4</v>
@@ -11006,7 +11312,7 @@
     </row>
     <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="0" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B921" s="0" t="s">
         <v>4</v>
@@ -11014,7 +11320,7 @@
     </row>
     <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="0" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B922" s="0" t="s">
         <v>4</v>
@@ -11022,7 +11328,7 @@
     </row>
     <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="0" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B923" s="0" t="s">
         <v>4</v>
@@ -11030,7 +11336,7 @@
     </row>
     <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="0" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B924" s="0" t="s">
         <v>4</v>
@@ -11038,7 +11344,7 @@
     </row>
     <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="0" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B925" s="0" t="s">
         <v>4</v>
@@ -11046,7 +11352,7 @@
     </row>
     <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="0" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B926" s="0" t="s">
         <v>4</v>
@@ -11054,7 +11360,7 @@
     </row>
     <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="0" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B927" s="0" t="s">
         <v>4</v>
@@ -11062,7 +11368,7 @@
     </row>
     <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="0" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B928" s="0" t="s">
         <v>4</v>
@@ -11070,7 +11376,7 @@
     </row>
     <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="0" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B929" s="0" t="s">
         <v>4</v>
@@ -11078,7 +11384,7 @@
     </row>
     <row r="930" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="0" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B930" s="0" t="s">
         <v>4</v>
@@ -11086,7 +11392,7 @@
     </row>
     <row r="931" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="0" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B931" s="0" t="s">
         <v>4</v>
@@ -11094,7 +11400,7 @@
     </row>
     <row r="932" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="0" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B932" s="0" t="s">
         <v>4</v>
@@ -11102,7 +11408,7 @@
     </row>
     <row r="933" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="0" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B933" s="0" t="s">
         <v>4</v>
@@ -11110,7 +11416,7 @@
     </row>
     <row r="934" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="0" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B934" s="0" t="s">
         <v>4</v>
@@ -11118,7 +11424,7 @@
     </row>
     <row r="935" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="0" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B935" s="0" t="s">
         <v>4</v>
@@ -11126,7 +11432,7 @@
     </row>
     <row r="936" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="0" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B936" s="0" t="s">
         <v>4</v>
@@ -11134,7 +11440,7 @@
     </row>
     <row r="937" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="0" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B937" s="0" t="s">
         <v>4</v>
@@ -11142,7 +11448,7 @@
     </row>
     <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="0" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B938" s="0" t="s">
         <v>4</v>
@@ -11150,7 +11456,7 @@
     </row>
     <row r="939" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="0" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B939" s="0" t="s">
         <v>4</v>
@@ -11158,7 +11464,7 @@
     </row>
     <row r="940" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="0" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B940" s="0" t="s">
         <v>4</v>
@@ -11166,7 +11472,7 @@
     </row>
     <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="0" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B941" s="0" t="s">
         <v>4</v>
@@ -11174,7 +11480,7 @@
     </row>
     <row r="942" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="0" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B942" s="0" t="s">
         <v>4</v>
@@ -11182,7 +11488,7 @@
     </row>
     <row r="943" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="0" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B943" s="0" t="s">
         <v>4</v>
@@ -11190,7 +11496,7 @@
     </row>
     <row r="944" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="0" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B944" s="0" t="s">
         <v>4</v>
@@ -11198,7 +11504,7 @@
     </row>
     <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="0" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B945" s="0" t="s">
         <v>4</v>
@@ -11206,7 +11512,7 @@
     </row>
     <row r="946" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="0" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B946" s="0" t="s">
         <v>4</v>
@@ -11214,7 +11520,7 @@
     </row>
     <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B947" s="0" t="s">
         <v>4</v>
@@ -11222,7 +11528,7 @@
     </row>
     <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B948" s="0" t="s">
         <v>4</v>
@@ -11230,7 +11536,7 @@
     </row>
     <row r="949" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="0" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B949" s="0" t="s">
         <v>4</v>
@@ -11238,7 +11544,7 @@
     </row>
     <row r="950" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="0" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B950" s="0" t="s">
         <v>4</v>
@@ -11246,7 +11552,7 @@
     </row>
     <row r="951" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="0" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B951" s="0" t="s">
         <v>4</v>
@@ -11254,7 +11560,7 @@
     </row>
     <row r="952" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="0" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B952" s="0" t="s">
         <v>4</v>
@@ -11262,7 +11568,7 @@
     </row>
     <row r="953" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="0" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B953" s="0" t="s">
         <v>4</v>
@@ -11270,7 +11576,7 @@
     </row>
     <row r="954" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="0" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B954" s="0" t="s">
         <v>4</v>
@@ -11278,7 +11584,7 @@
     </row>
     <row r="955" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="0" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B955" s="0" t="s">
         <v>4</v>
@@ -11286,7 +11592,7 @@
     </row>
     <row r="956" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B956" s="0" t="s">
         <v>4</v>
@@ -11294,7 +11600,7 @@
     </row>
     <row r="957" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B957" s="0" t="s">
         <v>4</v>
@@ -11302,7 +11608,7 @@
     </row>
     <row r="958" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B958" s="0" t="s">
         <v>4</v>
@@ -11310,7 +11616,7 @@
     </row>
     <row r="959" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="0" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B959" s="0" t="s">
         <v>4</v>
@@ -11318,7 +11624,7 @@
     </row>
     <row r="960" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="0" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B960" s="0" t="s">
         <v>4</v>
@@ -11326,7 +11632,7 @@
     </row>
     <row r="961" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B961" s="0" t="s">
         <v>4</v>
@@ -11334,7 +11640,7 @@
     </row>
     <row r="962" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="0" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B962" s="0" t="s">
         <v>4</v>
@@ -11342,7 +11648,7 @@
     </row>
     <row r="963" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B963" s="0" t="s">
         <v>4</v>
@@ -11350,7 +11656,7 @@
     </row>
     <row r="964" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="0" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B964" s="0" t="s">
         <v>4</v>
@@ -11358,7 +11664,7 @@
     </row>
     <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="0" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B965" s="0" t="s">
         <v>4</v>
@@ -11366,7 +11672,7 @@
     </row>
     <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="0" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B966" s="0" t="s">
         <v>4</v>
@@ -11374,7 +11680,7 @@
     </row>
     <row r="967" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="0" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B967" s="0" t="s">
         <v>4</v>
@@ -11382,7 +11688,7 @@
     </row>
     <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="0" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B968" s="0" t="s">
         <v>4</v>
@@ -11390,7 +11696,7 @@
     </row>
     <row r="969" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="0" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B969" s="0" t="s">
         <v>4</v>
@@ -11398,7 +11704,7 @@
     </row>
     <row r="970" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="0" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B970" s="0" t="s">
         <v>4</v>
@@ -11406,7 +11712,7 @@
     </row>
     <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="0" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B971" s="0" t="s">
         <v>4</v>
@@ -11414,7 +11720,7 @@
     </row>
     <row r="972" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="0" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B972" s="0" t="s">
         <v>4</v>
@@ -11422,7 +11728,7 @@
     </row>
     <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="0" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B973" s="0" t="s">
         <v>4</v>
@@ -11430,7 +11736,7 @@
     </row>
     <row r="974" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="0" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B974" s="0" t="s">
         <v>4</v>
@@ -11438,7 +11744,7 @@
     </row>
     <row r="975" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="0" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B975" s="0" t="s">
         <v>4</v>
@@ -11446,7 +11752,7 @@
     </row>
     <row r="976" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="0" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B976" s="0" t="s">
         <v>4</v>
@@ -11454,7 +11760,7 @@
     </row>
     <row r="977" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="0" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B977" s="0" t="s">
         <v>4</v>
@@ -11462,7 +11768,7 @@
     </row>
     <row r="978" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="0" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B978" s="0" t="s">
         <v>4</v>
@@ -11470,7 +11776,7 @@
     </row>
     <row r="979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="0" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B979" s="0" t="s">
         <v>4</v>
@@ -11478,7 +11784,7 @@
     </row>
     <row r="980" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="0" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B980" s="0" t="s">
         <v>4</v>
@@ -11486,7 +11792,7 @@
     </row>
     <row r="981" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="0" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B981" s="0" t="s">
         <v>4</v>
@@ -11494,7 +11800,7 @@
     </row>
     <row r="982" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="0" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B982" s="0" t="s">
         <v>4</v>
@@ -11502,7 +11808,7 @@
     </row>
     <row r="983" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="0" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B983" s="0" t="s">
         <v>4</v>
@@ -11510,7 +11816,7 @@
     </row>
     <row r="984" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="0" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B984" s="0" t="s">
         <v>4</v>
@@ -11518,7 +11824,7 @@
     </row>
     <row r="985" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="0" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B985" s="0" t="s">
         <v>4</v>
@@ -11526,7 +11832,7 @@
     </row>
     <row r="986" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="0" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B986" s="0" t="s">
         <v>4</v>
@@ -11534,7 +11840,7 @@
     </row>
     <row r="987" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="0" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B987" s="0" t="s">
         <v>4</v>
@@ -11542,7 +11848,7 @@
     </row>
     <row r="988" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="0" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B988" s="0" t="s">
         <v>4</v>
@@ -11550,7 +11856,7 @@
     </row>
     <row r="989" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="0" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B989" s="0" t="s">
         <v>4</v>
@@ -11558,7 +11864,7 @@
     </row>
     <row r="990" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="0" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B990" s="0" t="s">
         <v>4</v>
@@ -11566,7 +11872,7 @@
     </row>
     <row r="991" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="0" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B991" s="0" t="s">
         <v>4</v>
@@ -11574,7 +11880,7 @@
     </row>
     <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="0" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B992" s="0" t="s">
         <v>4</v>
@@ -11582,7 +11888,7 @@
     </row>
     <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="0" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B993" s="0" t="s">
         <v>4</v>
@@ -11590,7 +11896,7 @@
     </row>
     <row r="994" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="0" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B994" s="0" t="s">
         <v>4</v>
@@ -11598,7 +11904,7 @@
     </row>
     <row r="995" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="0" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B995" s="0" t="s">
         <v>4</v>
@@ -11606,7 +11912,7 @@
     </row>
     <row r="996" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="0" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B996" s="0" t="s">
         <v>4</v>
@@ -11614,7 +11920,7 @@
     </row>
     <row r="997" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="0" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B997" s="0" t="s">
         <v>4</v>
@@ -11622,7 +11928,7 @@
     </row>
     <row r="998" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="0" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B998" s="0" t="s">
         <v>4</v>
@@ -11630,7 +11936,7 @@
     </row>
     <row r="999" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="0" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B999" s="0" t="s">
         <v>4</v>
@@ -11638,7 +11944,7 @@
     </row>
     <row r="1000" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="0" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B1000" s="0" t="s">
         <v>4</v>
@@ -11646,7 +11952,7 @@
     </row>
     <row r="1001" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="0" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B1001" s="0" t="s">
         <v>4</v>
@@ -11654,7 +11960,7 @@
     </row>
     <row r="1002" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="0" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B1002" s="0" t="s">
         <v>4</v>
@@ -11662,7 +11968,7 @@
     </row>
     <row r="1003" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="0" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B1003" s="0" t="s">
         <v>4</v>
@@ -11670,7 +11976,7 @@
     </row>
     <row r="1004" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="0" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B1004" s="0" t="s">
         <v>4</v>
@@ -11678,7 +11984,7 @@
     </row>
     <row r="1005" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B1005" s="0" t="s">
         <v>4</v>
@@ -11686,7 +11992,7 @@
     </row>
     <row r="1006" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="0" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B1006" s="0" t="s">
         <v>4</v>
@@ -11694,7 +12000,7 @@
     </row>
     <row r="1007" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="0" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B1007" s="0" t="s">
         <v>4</v>
@@ -11702,7 +12008,7 @@
     </row>
     <row r="1008" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="0" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B1008" s="0" t="s">
         <v>4</v>
@@ -11710,7 +12016,7 @@
     </row>
     <row r="1009" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="0" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B1009" s="0" t="s">
         <v>4</v>
@@ -11718,7 +12024,7 @@
     </row>
     <row r="1010" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B1010" s="0" t="s">
         <v>4</v>
@@ -11726,7 +12032,7 @@
     </row>
     <row r="1011" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="0" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B1011" s="0" t="s">
         <v>4</v>
@@ -11734,7 +12040,7 @@
     </row>
     <row r="1012" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="0" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B1012" s="0" t="s">
         <v>4</v>
@@ -11742,7 +12048,7 @@
     </row>
     <row r="1013" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="0" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B1013" s="0" t="s">
         <v>4</v>
@@ -11750,7 +12056,7 @@
     </row>
     <row r="1014" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="0" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B1014" s="0" t="s">
         <v>4</v>
@@ -11758,7 +12064,7 @@
     </row>
     <row r="1015" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="0" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B1015" s="0" t="s">
         <v>4</v>
@@ -11766,7 +12072,7 @@
     </row>
     <row r="1016" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="0" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B1016" s="0" t="s">
         <v>4</v>
@@ -11774,7 +12080,7 @@
     </row>
     <row r="1017" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="0" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B1017" s="0" t="s">
         <v>4</v>
@@ -11782,7 +12088,7 @@
     </row>
     <row r="1018" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="0" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B1018" s="0" t="s">
         <v>4</v>
@@ -11790,7 +12096,7 @@
     </row>
     <row r="1019" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="0" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B1019" s="0" t="s">
         <v>4</v>
@@ -11798,7 +12104,7 @@
     </row>
     <row r="1020" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="0" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B1020" s="0" t="s">
         <v>4</v>
@@ -11806,7 +12112,7 @@
     </row>
     <row r="1021" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="0" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B1021" s="0" t="s">
         <v>4</v>
@@ -11814,7 +12120,7 @@
     </row>
     <row r="1022" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="0" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B1022" s="0" t="s">
         <v>4</v>
@@ -11822,7 +12128,7 @@
     </row>
     <row r="1023" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="0" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B1023" s="0" t="s">
         <v>4</v>
@@ -11830,7 +12136,7 @@
     </row>
     <row r="1024" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="0" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B1024" s="0" t="s">
         <v>4</v>
@@ -11838,7 +12144,7 @@
     </row>
     <row r="1025" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="0" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B1025" s="0" t="s">
         <v>4</v>
@@ -11846,7 +12152,7 @@
     </row>
     <row r="1026" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="0" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B1026" s="0" t="s">
         <v>4</v>
@@ -11854,7 +12160,7 @@
     </row>
     <row r="1027" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="0" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B1027" s="0" t="s">
         <v>4</v>
@@ -11862,7 +12168,7 @@
     </row>
     <row r="1028" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="0" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B1028" s="0" t="s">
         <v>4</v>
@@ -11870,7 +12176,7 @@
     </row>
     <row r="1029" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="0" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B1029" s="0" t="s">
         <v>4</v>
@@ -11878,7 +12184,7 @@
     </row>
     <row r="1030" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="0" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B1030" s="0" t="s">
         <v>4</v>
@@ -11886,7 +12192,7 @@
     </row>
     <row r="1031" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="0" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B1031" s="0" t="s">
         <v>4</v>
@@ -11894,7 +12200,7 @@
     </row>
     <row r="1032" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="0" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B1032" s="0" t="s">
         <v>4</v>
@@ -11902,7 +12208,7 @@
     </row>
     <row r="1033" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B1033" s="0" t="s">
         <v>4</v>
@@ -11910,7 +12216,7 @@
     </row>
     <row r="1034" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="0" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B1034" s="0" t="s">
         <v>4</v>
@@ -11918,7 +12224,7 @@
     </row>
     <row r="1035" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1035" s="0" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B1035" s="0" t="s">
         <v>4</v>
@@ -11926,7 +12232,7 @@
     </row>
     <row r="1036" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="0" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B1036" s="0" t="s">
         <v>4</v>
@@ -11934,7 +12240,7 @@
     </row>
     <row r="1037" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="0" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B1037" s="0" t="s">
         <v>4</v>
@@ -11942,7 +12248,7 @@
     </row>
     <row r="1038" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="0" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B1038" s="0" t="s">
         <v>4</v>
@@ -11950,7 +12256,7 @@
     </row>
     <row r="1039" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1039" s="0" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B1039" s="0" t="s">
         <v>4</v>
@@ -11958,7 +12264,7 @@
     </row>
     <row r="1040" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1040" s="0" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B1040" s="0" t="s">
         <v>4</v>
@@ -11966,7 +12272,7 @@
     </row>
     <row r="1041" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="0" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B1041" s="0" t="s">
         <v>4</v>
@@ -11974,7 +12280,7 @@
     </row>
     <row r="1042" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1042" s="0" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B1042" s="0" t="s">
         <v>4</v>
@@ -11982,7 +12288,7 @@
     </row>
     <row r="1043" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1043" s="0" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B1043" s="0" t="s">
         <v>4</v>
@@ -11990,7 +12296,7 @@
     </row>
     <row r="1044" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1044" s="0" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B1044" s="0" t="s">
         <v>4</v>
@@ -11998,7 +12304,7 @@
     </row>
     <row r="1045" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="0" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B1045" s="0" t="s">
         <v>4</v>
@@ -12006,7 +12312,7 @@
     </row>
     <row r="1046" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1046" s="0" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B1046" s="0" t="s">
         <v>4</v>
@@ -12014,7 +12320,7 @@
     </row>
     <row r="1047" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1047" s="0" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B1047" s="0" t="s">
         <v>4</v>
@@ -12022,7 +12328,7 @@
     </row>
     <row r="1048" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1048" s="0" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B1048" s="0" t="s">
         <v>4</v>
@@ -12030,7 +12336,7 @@
     </row>
     <row r="1049" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1049" s="0" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B1049" s="0" t="s">
         <v>4</v>
@@ -12038,7 +12344,7 @@
     </row>
     <row r="1050" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1050" s="0" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B1050" s="0" t="s">
         <v>4</v>
@@ -12046,7 +12352,7 @@
     </row>
     <row r="1051" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1051" s="0" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B1051" s="0" t="s">
         <v>4</v>
@@ -12054,7 +12360,7 @@
     </row>
     <row r="1052" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1052" s="0" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B1052" s="0" t="s">
         <v>4</v>
@@ -12062,7 +12368,7 @@
     </row>
     <row r="1053" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1053" s="0" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B1053" s="0" t="s">
         <v>4</v>
@@ -12070,7 +12376,7 @@
     </row>
     <row r="1054" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1054" s="0" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B1054" s="0" t="s">
         <v>4</v>
@@ -12078,7 +12384,7 @@
     </row>
     <row r="1055" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1055" s="0" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B1055" s="0" t="s">
         <v>4</v>
@@ -12086,7 +12392,7 @@
     </row>
     <row r="1056" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1056" s="0" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B1056" s="0" t="s">
         <v>4</v>
@@ -12094,7 +12400,7 @@
     </row>
     <row r="1057" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1057" s="0" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B1057" s="0" t="s">
         <v>4</v>
@@ -12102,7 +12408,7 @@
     </row>
     <row r="1058" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="0" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B1058" s="0" t="s">
         <v>4</v>
@@ -12110,7 +12416,7 @@
     </row>
     <row r="1059" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="0" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B1059" s="0" t="s">
         <v>4</v>
@@ -12118,7 +12424,7 @@
     </row>
     <row r="1060" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="0" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B1060" s="0" t="s">
         <v>4</v>
@@ -12126,7 +12432,7 @@
     </row>
     <row r="1061" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1061" s="0" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B1061" s="0" t="s">
         <v>4</v>
@@ -12134,7 +12440,7 @@
     </row>
     <row r="1062" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="0" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B1062" s="0" t="s">
         <v>4</v>
@@ -12142,7 +12448,7 @@
     </row>
     <row r="1063" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1063" s="0" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B1063" s="0" t="s">
         <v>4</v>
@@ -12150,7 +12456,7 @@
     </row>
     <row r="1064" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1064" s="0" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B1064" s="0" t="s">
         <v>4</v>
@@ -12158,7 +12464,7 @@
     </row>
     <row r="1065" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1065" s="0" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B1065" s="0" t="s">
         <v>4</v>
@@ -12166,7 +12472,7 @@
     </row>
     <row r="1066" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1066" s="0" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B1066" s="0" t="s">
         <v>4</v>
@@ -12174,7 +12480,7 @@
     </row>
     <row r="1067" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1067" s="0" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B1067" s="0" t="s">
         <v>4</v>
@@ -12182,7 +12488,7 @@
     </row>
     <row r="1068" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1068" s="0" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B1068" s="0" t="s">
         <v>4</v>
@@ -12190,7 +12496,7 @@
     </row>
     <row r="1069" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1069" s="0" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B1069" s="0" t="s">
         <v>4</v>
@@ -12198,7 +12504,7 @@
     </row>
     <row r="1070" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="0" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B1070" s="0" t="s">
         <v>4</v>
@@ -12206,7 +12512,7 @@
     </row>
     <row r="1071" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1071" s="0" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B1071" s="0" t="s">
         <v>4</v>
@@ -12214,7 +12520,7 @@
     </row>
     <row r="1072" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1072" s="0" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B1072" s="0" t="s">
         <v>4</v>
@@ -12222,7 +12528,7 @@
     </row>
     <row r="1073" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1073" s="0" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B1073" s="0" t="s">
         <v>4</v>
@@ -12230,7 +12536,7 @@
     </row>
     <row r="1074" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1074" s="0" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B1074" s="0" t="s">
         <v>4</v>
@@ -12238,7 +12544,7 @@
     </row>
     <row r="1075" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1075" s="0" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B1075" s="0" t="s">
         <v>4</v>
@@ -12246,7 +12552,7 @@
     </row>
     <row r="1076" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1076" s="0" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B1076" s="0" t="s">
         <v>4</v>
@@ -12254,7 +12560,7 @@
     </row>
     <row r="1077" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1077" s="0" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B1077" s="0" t="s">
         <v>4</v>
@@ -12262,7 +12568,7 @@
     </row>
     <row r="1078" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1078" s="0" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B1078" s="0" t="s">
         <v>4</v>
@@ -12270,7 +12576,7 @@
     </row>
     <row r="1079" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1079" s="0" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B1079" s="0" t="s">
         <v>4</v>
@@ -12278,7 +12584,7 @@
     </row>
     <row r="1080" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1080" s="0" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B1080" s="0" t="s">
         <v>4</v>
@@ -12286,7 +12592,7 @@
     </row>
     <row r="1081" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1081" s="0" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B1081" s="0" t="s">
         <v>4</v>
@@ -12294,7 +12600,7 @@
     </row>
     <row r="1082" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="0" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B1082" s="0" t="s">
         <v>4</v>
@@ -12302,7 +12608,7 @@
     </row>
     <row r="1083" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1083" s="0" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B1083" s="0" t="s">
         <v>4</v>
@@ -12310,7 +12616,7 @@
     </row>
     <row r="1084" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1084" s="0" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B1084" s="0" t="s">
         <v>4</v>
@@ -12318,7 +12624,7 @@
     </row>
     <row r="1085" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1085" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B1085" s="0" t="s">
         <v>4</v>
@@ -12326,7 +12632,7 @@
     </row>
     <row r="1086" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1086" s="0" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B1086" s="0" t="s">
         <v>4</v>
@@ -12334,7 +12640,7 @@
     </row>
     <row r="1087" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1087" s="0" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B1087" s="0" t="s">
         <v>4</v>
@@ -12342,7 +12648,7 @@
     </row>
     <row r="1088" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1088" s="0" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B1088" s="0" t="s">
         <v>4</v>
@@ -12350,7 +12656,7 @@
     </row>
     <row r="1089" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1089" s="0" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B1089" s="0" t="s">
         <v>4</v>
@@ -12358,7 +12664,7 @@
     </row>
     <row r="1090" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1090" s="0" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B1090" s="0" t="s">
         <v>4</v>
@@ -12366,7 +12672,7 @@
     </row>
     <row r="1091" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1091" s="0" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B1091" s="0" t="s">
         <v>4</v>
@@ -12374,7 +12680,7 @@
     </row>
     <row r="1092" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1092" s="0" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B1092" s="0" t="s">
         <v>4</v>
@@ -12382,7 +12688,7 @@
     </row>
     <row r="1093" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1093" s="0" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B1093" s="0" t="s">
         <v>4</v>
@@ -12390,7 +12696,7 @@
     </row>
     <row r="1094" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1094" s="0" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B1094" s="0" t="s">
         <v>4</v>
@@ -12398,7 +12704,7 @@
     </row>
     <row r="1095" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1095" s="0" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B1095" s="0" t="s">
         <v>4</v>
@@ -12406,7 +12712,7 @@
     </row>
     <row r="1096" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1096" s="0" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B1096" s="0" t="s">
         <v>4</v>
@@ -12414,7 +12720,7 @@
     </row>
     <row r="1097" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1097" s="0" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B1097" s="0" t="s">
         <v>4</v>
@@ -12422,7 +12728,7 @@
     </row>
     <row r="1098" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1098" s="0" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B1098" s="0" t="s">
         <v>4</v>
@@ -12430,7 +12736,7 @@
     </row>
     <row r="1099" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1099" s="0" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B1099" s="0" t="s">
         <v>4</v>
@@ -12438,7 +12744,7 @@
     </row>
     <row r="1100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1100" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B1100" s="0" t="s">
         <v>4</v>
@@ -12446,7 +12752,7 @@
     </row>
     <row r="1101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1101" s="0" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B1101" s="0" t="s">
         <v>4</v>
@@ -12454,7 +12760,7 @@
     </row>
     <row r="1102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1102" s="0" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B1102" s="0" t="s">
         <v>4</v>
@@ -12462,7 +12768,7 @@
     </row>
     <row r="1103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1103" s="0" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B1103" s="0" t="s">
         <v>4</v>
@@ -12470,7 +12776,7 @@
     </row>
     <row r="1104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1104" s="0" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B1104" s="0" t="s">
         <v>4</v>
@@ -12478,7 +12784,7 @@
     </row>
     <row r="1105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1105" s="0" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B1105" s="0" t="s">
         <v>4</v>
@@ -12486,7 +12792,7 @@
     </row>
     <row r="1106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="0" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B1106" s="0" t="s">
         <v>4</v>
@@ -12494,7 +12800,7 @@
     </row>
     <row r="1107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1107" s="0" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B1107" s="0" t="s">
         <v>4</v>
@@ -12502,7 +12808,7 @@
     </row>
     <row r="1108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1108" s="0" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B1108" s="0" t="s">
         <v>4</v>
@@ -12510,7 +12816,7 @@
     </row>
     <row r="1109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1109" s="0" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B1109" s="0" t="s">
         <v>4</v>
@@ -12518,7 +12824,7 @@
     </row>
     <row r="1110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1110" s="0" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B1110" s="0" t="s">
         <v>4</v>
@@ -12526,7 +12832,7 @@
     </row>
     <row r="1111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1111" s="0" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B1111" s="0" t="s">
         <v>4</v>
@@ -12534,7 +12840,7 @@
     </row>
     <row r="1112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1112" s="0" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B1112" s="0" t="s">
         <v>4</v>
@@ -12542,7 +12848,7 @@
     </row>
     <row r="1113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1113" s="0" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B1113" s="0" t="s">
         <v>4</v>
@@ -12550,7 +12856,7 @@
     </row>
     <row r="1114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1114" s="0" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B1114" s="0" t="s">
         <v>4</v>
@@ -12558,7 +12864,7 @@
     </row>
     <row r="1115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1115" s="0" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B1115" s="0" t="s">
         <v>4</v>
@@ -12566,7 +12872,7 @@
     </row>
     <row r="1116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1116" s="0" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B1116" s="0" t="s">
         <v>4</v>
@@ -12574,7 +12880,7 @@
     </row>
     <row r="1117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1117" s="0" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B1117" s="0" t="s">
         <v>4</v>
@@ -12582,7 +12888,7 @@
     </row>
     <row r="1118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1118" s="0" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B1118" s="0" t="s">
         <v>4</v>
@@ -12590,7 +12896,7 @@
     </row>
     <row r="1119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1119" s="0" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B1119" s="0" t="s">
         <v>4</v>
@@ -12598,7 +12904,7 @@
     </row>
     <row r="1120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1120" s="0" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B1120" s="0" t="s">
         <v>4</v>
@@ -12606,7 +12912,7 @@
     </row>
     <row r="1121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1121" s="0" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B1121" s="0" t="s">
         <v>4</v>
@@ -12614,7 +12920,7 @@
     </row>
     <row r="1122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1122" s="0" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B1122" s="0" t="s">
         <v>4</v>
@@ -12622,7 +12928,7 @@
     </row>
     <row r="1123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1123" s="0" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B1123" s="0" t="s">
         <v>4</v>
@@ -12630,7 +12936,7 @@
     </row>
     <row r="1124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1124" s="0" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B1124" s="0" t="s">
         <v>4</v>
@@ -12638,7 +12944,7 @@
     </row>
     <row r="1125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1125" s="0" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B1125" s="0" t="s">
         <v>4</v>
@@ -12646,7 +12952,7 @@
     </row>
     <row r="1126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1126" s="0" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B1126" s="0" t="s">
         <v>4</v>
@@ -12654,7 +12960,7 @@
     </row>
     <row r="1127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1127" s="0" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B1127" s="0" t="s">
         <v>4</v>
@@ -12662,7 +12968,7 @@
     </row>
     <row r="1128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1128" s="0" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B1128" s="0" t="s">
         <v>4</v>
@@ -12670,7 +12976,7 @@
     </row>
     <row r="1129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1129" s="0" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B1129" s="0" t="s">
         <v>4</v>
@@ -12678,7 +12984,7 @@
     </row>
     <row r="1130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1130" s="0" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B1130" s="0" t="s">
         <v>4</v>
@@ -12686,7 +12992,7 @@
     </row>
     <row r="1131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1131" s="0" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B1131" s="0" t="s">
         <v>4</v>
@@ -12694,7 +13000,7 @@
     </row>
     <row r="1132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1132" s="0" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B1132" s="0" t="s">
         <v>4</v>
@@ -12702,7 +13008,7 @@
     </row>
     <row r="1133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1133" s="0" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B1133" s="0" t="s">
         <v>4</v>
@@ -12710,7 +13016,7 @@
     </row>
     <row r="1134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1134" s="0" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B1134" s="0" t="s">
         <v>4</v>
@@ -12718,7 +13024,7 @@
     </row>
     <row r="1135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1135" s="0" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B1135" s="0" t="s">
         <v>4</v>
@@ -12726,7 +13032,7 @@
     </row>
     <row r="1136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1136" s="0" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B1136" s="0" t="s">
         <v>4</v>
@@ -12734,7 +13040,7 @@
     </row>
     <row r="1137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1137" s="0" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B1137" s="0" t="s">
         <v>4</v>
@@ -12742,7 +13048,7 @@
     </row>
     <row r="1138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1138" s="0" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B1138" s="0" t="s">
         <v>4</v>
@@ -12750,7 +13056,7 @@
     </row>
     <row r="1139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="0" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B1139" s="0" t="s">
         <v>4</v>
@@ -12758,7 +13064,7 @@
     </row>
     <row r="1140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1140" s="0" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B1140" s="0" t="s">
         <v>4</v>
@@ -12766,7 +13072,7 @@
     </row>
     <row r="1141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="0" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B1141" s="0" t="s">
         <v>4</v>
@@ -12774,7 +13080,7 @@
     </row>
     <row r="1142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1142" s="0" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B1142" s="0" t="s">
         <v>4</v>
@@ -12782,7 +13088,7 @@
     </row>
     <row r="1143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1143" s="0" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B1143" s="0" t="s">
         <v>4</v>
@@ -12790,7 +13096,7 @@
     </row>
     <row r="1144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1144" s="0" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B1144" s="0" t="s">
         <v>4</v>
@@ -12798,7 +13104,7 @@
     </row>
     <row r="1145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1145" s="0" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B1145" s="0" t="s">
         <v>4</v>
@@ -12806,7 +13112,7 @@
     </row>
     <row r="1146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1146" s="0" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B1146" s="0" t="s">
         <v>4</v>
@@ -12814,7 +13120,7 @@
     </row>
     <row r="1147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1147" s="0" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B1147" s="0" t="s">
         <v>4</v>
@@ -12822,7 +13128,7 @@
     </row>
     <row r="1148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1148" s="0" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B1148" s="0" t="s">
         <v>4</v>
@@ -12830,7 +13136,7 @@
     </row>
     <row r="1149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1149" s="0" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B1149" s="0" t="s">
         <v>4</v>
@@ -12838,7 +13144,7 @@
     </row>
     <row r="1150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1150" s="0" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B1150" s="0" t="s">
         <v>4</v>
@@ -12846,7 +13152,7 @@
     </row>
     <row r="1151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1151" s="0" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B1151" s="0" t="s">
         <v>4</v>
@@ -12854,7 +13160,7 @@
     </row>
     <row r="1152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1152" s="0" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B1152" s="0" t="s">
         <v>4</v>
@@ -12862,7 +13168,7 @@
     </row>
     <row r="1153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1153" s="0" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B1153" s="0" t="s">
         <v>4</v>
@@ -12870,7 +13176,7 @@
     </row>
     <row r="1154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1154" s="0" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B1154" s="0" t="s">
         <v>4</v>
@@ -12878,7 +13184,7 @@
     </row>
     <row r="1155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1155" s="0" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B1155" s="0" t="s">
         <v>4</v>
@@ -12886,7 +13192,7 @@
     </row>
     <row r="1156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1156" s="0" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B1156" s="0" t="s">
         <v>4</v>
@@ -12894,7 +13200,7 @@
     </row>
     <row r="1157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1157" s="0" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B1157" s="0" t="s">
         <v>4</v>
@@ -12902,7 +13208,7 @@
     </row>
     <row r="1158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1158" s="0" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B1158" s="0" t="s">
         <v>4</v>
@@ -12910,7 +13216,7 @@
     </row>
     <row r="1159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1159" s="0" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B1159" s="0" t="s">
         <v>4</v>
@@ -12918,7 +13224,7 @@
     </row>
     <row r="1160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1160" s="0" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B1160" s="0" t="s">
         <v>4</v>
@@ -12926,7 +13232,7 @@
     </row>
     <row r="1161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1161" s="0" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B1161" s="0" t="s">
         <v>4</v>
@@ -12934,7 +13240,7 @@
     </row>
     <row r="1162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="0" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B1162" s="0" t="s">
         <v>4</v>
